--- a/automation.xlsx
+++ b/automation.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{ABD86669-B110-4EE4-9058-2C8CFC78242E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbujnows\eclipse-workspace\CucumberTestAutomation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD1AC60-E3D3-41EB-813E-653FAB5B40AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19460" windowHeight="11060" xr2:uid="{D49A02D6-1CAD-4228-9FE1-F8829C14B003}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D49A02D6-1CAD-4228-9FE1-F8829C14B003}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,13 +36,13 @@
     <t>Greg</t>
   </si>
   <si>
-    <t>Org</t>
-  </si>
-  <si>
-    <t>Dido</t>
-  </si>
-  <si>
-    <t>Toudi</t>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Clint</t>
+  </si>
+  <si>
+    <t>Roman</t>
   </si>
 </sst>
 </file>
@@ -393,7 +397,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -435,7 +439,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>12348</v>
+        <v>12346</v>
       </c>
     </row>
   </sheetData>

--- a/automation.xlsx
+++ b/automation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbujnows\eclipse-workspace\CucumberTestAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbujnows\eclipse-workspace\CucumberAutomationVer2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD1AC60-E3D3-41EB-813E-653FAB5B40AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646C11C0-17C8-4B0B-AE8A-595BF09D29DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D49A02D6-1CAD-4228-9FE1-F8829C14B003}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -423,7 +423,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>12345</v>
+        <v>12348</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -439,10 +439,160 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>12346</v>
+        <v>12345</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010051611185DC91BE4FA67FCD4B7CE02A86" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="841013e7f45001660de789b09c2f3852">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d413257cd9829394d17656a545d5fa4e">
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all/>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1E45FEB-E6E2-484F-98DE-AB08977FB396}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A84303-2422-4452-B562-DD28EB8DD2B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD865F64-A5E4-4C29-ABDA-21288892AFB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>